--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3798.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3798.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.00220737709991</v>
+        <v>3.496418714523315</v>
       </c>
       <c r="B1">
-        <v>2.199078446174711</v>
+        <v>6.587157249450684</v>
       </c>
       <c r="C1">
-        <v>2.515454707047267</v>
+        <v>2.591421842575073</v>
       </c>
       <c r="D1">
-        <v>4.034420375442094</v>
+        <v>1.696979284286499</v>
       </c>
       <c r="E1">
-        <v>1.439965375655155</v>
+        <v>1.357116103172302</v>
       </c>
     </row>
   </sheetData>
